--- a/Tesztelési terv.xlsx
+++ b/Tesztelési terv.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E8181F-F228-4FEB-8CC5-A1D7FCA96CE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D4C7C0-FCB3-44E3-B8AB-9309EF955CD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -37,10 +37,145 @@
     <t>Sikeres</t>
   </si>
   <si>
-    <t xml:space="preserve"> adott switcheken belül, adott Vlan-on belül a gépeknek van-e IP címe</t>
-  </si>
-  <si>
-    <t>PC - backend</t>
+    <t>ping</t>
+  </si>
+  <si>
+    <t>PC - tester</t>
+  </si>
+  <si>
+    <t>PC - tester 2</t>
+  </si>
+  <si>
+    <t>- adott switcheken belül, adott Vlan-on belül a gépeknek van-e IP címe</t>
+  </si>
+  <si>
+    <t>- adott switchen belül, adott vlan-on belül két gép között ping</t>
+  </si>
+  <si>
+    <t>- különböző switchek között , ugyanabban a vlanban két gép között ping</t>
+  </si>
+  <si>
+    <t>- adott gép eléri-e az alapértelmezett átjárót</t>
+  </si>
+  <si>
+    <t>- adott switchben, különöző vlanok ban lévő gépek között ping, traceroute</t>
+  </si>
+  <si>
+    <t>- különböző switchben, különböző vlanban lévő gépek között ping</t>
+  </si>
+  <si>
+    <t>- névfeloldás ellenörzése</t>
+  </si>
+  <si>
+    <t>- webszerver elérhető</t>
+  </si>
+  <si>
+    <t>PC - mngt</t>
+  </si>
+  <si>
+    <t>PC - mngt 1</t>
+  </si>
+  <si>
+    <t>S0</t>
+  </si>
+  <si>
+    <t>PC - back</t>
+  </si>
+  <si>
+    <t>PC - back 1</t>
+  </si>
+  <si>
+    <t>PC - back 2</t>
+  </si>
+  <si>
+    <t>PC - tester 1</t>
+  </si>
+  <si>
+    <t>PC - tester 3</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>PC - front</t>
+  </si>
+  <si>
+    <t>PC - front 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC - back 2 </t>
+  </si>
+  <si>
+    <t>PC - back 3</t>
+  </si>
+  <si>
+    <t>PC - Ux</t>
+  </si>
+  <si>
+    <t>PC Ux 1</t>
+  </si>
+  <si>
+    <t>PC - nete</t>
+  </si>
+  <si>
+    <t>Pc - tester 2</t>
+  </si>
+  <si>
+    <t>PC - front 2</t>
+  </si>
+  <si>
+    <t>PC - front 3</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>Tesztelés menete</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>PC - ux</t>
+  </si>
+  <si>
+    <t>S1 - S2</t>
+  </si>
+  <si>
+    <t>S0 -S2</t>
+  </si>
+  <si>
+    <t>S0 - S1</t>
+  </si>
+  <si>
+    <t>✔</t>
+  </si>
+  <si>
+    <t>PC back</t>
+  </si>
+  <si>
+    <t>PC -tester</t>
+  </si>
+  <si>
+    <t>PC - UX 1</t>
+  </si>
+  <si>
+    <t>PC - Ux 1</t>
+  </si>
+  <si>
+    <t>PC - nete 2</t>
+  </si>
+  <si>
+    <t>tracert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC - mngt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC - front 1 </t>
+  </si>
+  <si>
+    <t>Pc - UX 1</t>
   </si>
 </sst>
 </file>
@@ -56,15 +191,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -72,12 +231,224 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -358,117 +729,1500 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="B1:Q100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="25">
+        <v>2</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="25">
+        <v>3</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="J4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="D4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="8"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="25">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="C5" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="22"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="25">
+        <v>5</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="25">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="C7" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="25">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="C8" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="25">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="C9" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="26">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="C10" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="C11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="11">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="C12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="12">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="C13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="29">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="C14" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="29"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="31">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="C15" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="31">
         <v>15</v>
       </c>
+      <c r="C16" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="31">
+        <v>16</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="31">
+        <v>17</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="31"/>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="32">
+        <v>18</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="32"/>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="35">
+        <v>19</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="37">
+        <v>20</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="37">
+        <v>21</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="37">
+        <v>22</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="37">
+        <v>23</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="37">
+        <v>24</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="37">
+        <v>25</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="37">
+        <v>26</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="37">
+        <v>27</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="37">
+        <v>28</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="37">
+        <v>29</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="37">
+        <v>30</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="37">
+        <v>31</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="37">
+        <v>32</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="37">
+        <v>33</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="37">
+        <v>34</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="37">
+        <v>35</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="39">
+        <v>36</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="19">
+        <v>37</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>38</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="14">
+        <v>39</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="14">
+        <v>40</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>41</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="14">
+        <v>42</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="14">
+        <v>43</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <v>44</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="14">
+        <v>45</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="14">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <v>47</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="14">
+        <v>48</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="14">
+        <v>49</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <v>50</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="14">
+        <v>51</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="14">
+        <v>52</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="1">
+        <v>53</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="14">
+        <v>54</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="14">
+        <v>55</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="1">
+        <v>56</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="14">
+        <v>57</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="14">
+        <v>58</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="1">
+        <v>59</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="14">
+        <v>60</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="14">
+        <v>61</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="1">
+        <v>62</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="14">
+        <v>63</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="14">
+        <v>64</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="1">
+        <v>65</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="14">
+        <v>66</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="14">
+        <v>67</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="1">
+        <v>68</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="14">
+        <v>69</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="14">
+        <v>70</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="1">
+        <v>71</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="14">
+        <v>72</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="14">
+        <v>73</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="1">
+        <v>74</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="14">
+        <v>75</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="14">
+        <v>76</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="1">
+        <v>77</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="14">
+        <v>78</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="14">
+        <v>79</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="1">
+        <v>80</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="14">
+        <v>81</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="14">
+        <v>82</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="1">
+        <v>83</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="14">
+        <v>84</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="14">
+        <v>85</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="1">
+        <v>86</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="14">
+        <v>87</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="14">
+        <v>88</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="1">
+        <v>89</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="14">
+        <v>90</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="14">
+        <v>91</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="1">
+        <v>92</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="14">
+        <v>93</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="14">
+        <v>94</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="1">
+        <v>95</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="14">
+        <v>96</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="14">
+        <v>97</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="1">
+        <v>98</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="14">
+        <v>99</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J10:Q10"/>
+    <mergeCell ref="J11:Q11"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="J5:Q5"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="J6:Q6"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="J8:Q8"/>
+    <mergeCell ref="J9:Q9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tesztelési terv.xlsx
+++ b/Tesztelési terv.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D4C7C0-FCB3-44E3-B8AB-9309EF955CD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9F5D7C-2A26-487D-9458-A574F711B2D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,30 +366,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -404,15 +386,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -422,9 +395,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -433,9 +403,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -448,6 +415,39 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:D42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,805 +760,805 @@
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="23">
+      <c r="B2" s="14">
         <v>1</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="23" t="s">
+      <c r="E2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25">
+      <c r="B3" s="16">
         <v>2</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="25" t="s">
+      <c r="E3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="25">
+      <c r="B4" s="16">
         <v>3</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="25" t="s">
+      <c r="E4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="8"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="37"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="25">
+      <c r="B5" s="16">
         <v>4</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="25" t="s">
+      <c r="E5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="22"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="34"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="25">
-        <v>5</v>
-      </c>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="16">
+        <v>5</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="25" t="s">
+      <c r="E6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="25">
+      <c r="B7" s="16">
         <v>6</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="25" t="s">
+      <c r="E7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="25">
+      <c r="B8" s="16">
         <v>7</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="25" t="s">
+      <c r="E8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="25">
+      <c r="B9" s="16">
         <v>8</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="25" t="s">
+      <c r="E9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
     </row>
     <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="26">
+      <c r="B10" s="17">
         <v>9</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="26" t="s">
+      <c r="E10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
     </row>
     <row r="11" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="10">
+      <c r="B11" s="5">
         <v>10</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="10" t="s">
+      <c r="E11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="11">
+      <c r="B12" s="6">
         <v>11</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="11" t="s">
+      <c r="E12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="12">
+      <c r="B13" s="7">
         <v>12</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="12" t="s">
+      <c r="E13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="29">
+      <c r="B14" s="19">
         <v>13</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="29"/>
+      <c r="E14" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="31">
+      <c r="B15" s="21">
         <v>14</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="31"/>
+      <c r="E15" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="31">
+      <c r="B16" s="21">
         <v>15</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="31"/>
+      <c r="E16" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="31">
+      <c r="B17" s="21">
         <v>16</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="31"/>
+      <c r="E17" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="31">
+      <c r="B18" s="21">
         <v>17</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="31"/>
+      <c r="E18" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="21"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="32">
+      <c r="B19" s="22">
         <v>18</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="32"/>
+      <c r="E19" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="22"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="35">
+      <c r="B20" s="24">
         <v>19</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="35" t="s">
+      <c r="E20" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="37">
+      <c r="B21" s="26">
         <v>20</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="37" t="s">
+      <c r="E21" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="37">
+      <c r="B22" s="26">
         <v>21</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="37" t="s">
+      <c r="E22" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="37">
+      <c r="B23" s="26">
         <v>22</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="35" t="s">
+      <c r="F23" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="37">
+      <c r="B24" s="26">
         <v>23</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" s="37" t="s">
+      <c r="F24" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="37">
+      <c r="B25" s="26">
         <v>24</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="37" t="s">
+      <c r="F25" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="37">
+      <c r="B26" s="26">
         <v>25</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="37" t="s">
+      <c r="E26" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="37">
+      <c r="B27" s="26">
         <v>26</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="37" t="s">
+      <c r="E27" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="37">
+      <c r="B28" s="26">
         <v>27</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="37" t="s">
+      <c r="E28" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="37">
+      <c r="B29" s="26">
         <v>28</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E29" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" s="37" t="s">
+      <c r="F29" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="37">
+      <c r="B30" s="26">
         <v>29</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="E30" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="37" t="s">
+      <c r="F30" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="37">
+      <c r="B31" s="26">
         <v>30</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F31" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" s="37" t="s">
+      <c r="F31" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="37">
+      <c r="B32" s="26">
         <v>31</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" s="37" t="s">
+      <c r="E32" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="37">
+      <c r="B33" s="26">
         <v>32</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G33" s="37" t="s">
+      <c r="E33" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="37">
+      <c r="B34" s="26">
         <v>33</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" s="37" t="s">
+      <c r="E34" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="37">
+      <c r="B35" s="26">
         <v>34</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="37" t="s">
+      <c r="E35" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F35" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" s="37" t="s">
+      <c r="F35" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="37">
+      <c r="B36" s="26">
         <v>35</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="37" t="s">
+      <c r="E36" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" s="37" t="s">
+      <c r="F36" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="39">
+      <c r="B37" s="28">
         <v>36</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="39" t="s">
+      <c r="E37" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="G37" s="39" t="s">
+      <c r="F37" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="19">
+      <c r="B38" s="13">
         <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -1568,7 +1568,7 @@
         <v>50</v>
       </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="18"/>
+      <c r="F38" s="12"/>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
@@ -1582,11 +1582,11 @@
         <v>33</v>
       </c>
       <c r="E39" s="1"/>
-      <c r="F39" s="5"/>
+      <c r="F39" s="4"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="14">
+      <c r="B40" s="8">
         <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -1596,11 +1596,11 @@
         <v>20</v>
       </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="5"/>
+      <c r="F40" s="4"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="14">
+      <c r="B41" s="8">
         <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -1610,7 +1610,7 @@
         <v>47</v>
       </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="5"/>
+      <c r="F41" s="4"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
@@ -1624,11 +1624,11 @@
         <v>7</v>
       </c>
       <c r="E42" s="1"/>
-      <c r="F42" s="5"/>
+      <c r="F42" s="4"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="14">
+      <c r="B43" s="8">
         <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1638,17 +1638,17 @@
         <v>51</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="5"/>
+      <c r="F43" s="4"/>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="14">
+      <c r="B44" s="8">
         <v>43</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="5"/>
+      <c r="F44" s="4"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
@@ -1658,27 +1658,27 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="5"/>
+      <c r="F45" s="4"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="14">
+      <c r="B46" s="8">
         <v>45</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="5"/>
+      <c r="F46" s="4"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="14">
+      <c r="B47" s="8">
         <v>46</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="5"/>
+      <c r="F47" s="4"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
@@ -1688,27 +1688,27 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="5"/>
+      <c r="F48" s="4"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="14">
+      <c r="B49" s="8">
         <v>48</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="5"/>
+      <c r="F49" s="4"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="14">
+      <c r="B50" s="8">
         <v>49</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="5"/>
+      <c r="F50" s="4"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
@@ -1718,27 +1718,27 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="5"/>
+      <c r="F51" s="4"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="14">
+      <c r="B52" s="8">
         <v>51</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="5"/>
+      <c r="F52" s="4"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="14">
+      <c r="B53" s="8">
         <v>52</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="5"/>
+      <c r="F53" s="4"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
@@ -1748,27 +1748,27 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="5"/>
+      <c r="F54" s="4"/>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="14">
+      <c r="B55" s="8">
         <v>54</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="5"/>
+      <c r="F55" s="4"/>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="14">
+      <c r="B56" s="8">
         <v>55</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="5"/>
+      <c r="F56" s="4"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
@@ -1778,27 +1778,27 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="5"/>
+      <c r="F57" s="4"/>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="14">
+      <c r="B58" s="8">
         <v>57</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="5"/>
+      <c r="F58" s="4"/>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="14">
+      <c r="B59" s="8">
         <v>58</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="5"/>
+      <c r="F59" s="4"/>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
@@ -1808,27 +1808,27 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="5"/>
+      <c r="F60" s="4"/>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="14">
+      <c r="B61" s="8">
         <v>60</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="5"/>
+      <c r="F61" s="4"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="14">
+      <c r="B62" s="8">
         <v>61</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="5"/>
+      <c r="F62" s="4"/>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
@@ -1838,27 +1838,27 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="5"/>
+      <c r="F63" s="4"/>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="14">
+      <c r="B64" s="8">
         <v>63</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="5"/>
+      <c r="F64" s="4"/>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="14">
+      <c r="B65" s="8">
         <v>64</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="5"/>
+      <c r="F65" s="4"/>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
@@ -1868,27 +1868,27 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="5"/>
+      <c r="F66" s="4"/>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="14">
+      <c r="B67" s="8">
         <v>66</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="5"/>
+      <c r="F67" s="4"/>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="14">
+      <c r="B68" s="8">
         <v>67</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="5"/>
+      <c r="F68" s="4"/>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
@@ -1898,27 +1898,27 @@
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="5"/>
+      <c r="F69" s="4"/>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="14">
+      <c r="B70" s="8">
         <v>69</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="5"/>
+      <c r="F70" s="4"/>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="14">
+      <c r="B71" s="8">
         <v>70</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="5"/>
+      <c r="F71" s="4"/>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
@@ -1928,27 +1928,27 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="5"/>
+      <c r="F72" s="4"/>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="14">
+      <c r="B73" s="8">
         <v>72</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="5"/>
+      <c r="F73" s="4"/>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="14">
+      <c r="B74" s="8">
         <v>73</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="5"/>
+      <c r="F74" s="4"/>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
@@ -1958,27 +1958,27 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="5"/>
+      <c r="F75" s="4"/>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="14">
+      <c r="B76" s="8">
         <v>75</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="5"/>
+      <c r="F76" s="4"/>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="14">
+      <c r="B77" s="8">
         <v>76</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="5"/>
+      <c r="F77" s="4"/>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
@@ -1988,27 +1988,27 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="5"/>
+      <c r="F78" s="4"/>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="14">
+      <c r="B79" s="8">
         <v>78</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="5"/>
+      <c r="F79" s="4"/>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="14">
+      <c r="B80" s="8">
         <v>79</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="5"/>
+      <c r="F80" s="4"/>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
@@ -2018,27 +2018,27 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="5"/>
+      <c r="F81" s="4"/>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="14">
+      <c r="B82" s="8">
         <v>81</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="5"/>
+      <c r="F82" s="4"/>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B83" s="14">
+      <c r="B83" s="8">
         <v>82</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="5"/>
+      <c r="F83" s="4"/>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
@@ -2048,27 +2048,27 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="5"/>
+      <c r="F84" s="4"/>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="14">
+      <c r="B85" s="8">
         <v>84</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="5"/>
+      <c r="F85" s="4"/>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="14">
+      <c r="B86" s="8">
         <v>85</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="5"/>
+      <c r="F86" s="4"/>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
@@ -2078,27 +2078,27 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="5"/>
+      <c r="F87" s="4"/>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="14">
+      <c r="B88" s="8">
         <v>87</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="5"/>
+      <c r="F88" s="4"/>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="14">
+      <c r="B89" s="8">
         <v>88</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="5"/>
+      <c r="F89" s="4"/>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
@@ -2108,27 +2108,27 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="5"/>
+      <c r="F90" s="4"/>
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="14">
+      <c r="B91" s="8">
         <v>90</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="5"/>
+      <c r="F91" s="4"/>
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="14">
+      <c r="B92" s="8">
         <v>91</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="5"/>
+      <c r="F92" s="4"/>
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
@@ -2138,27 +2138,27 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="5"/>
+      <c r="F93" s="4"/>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="14">
+      <c r="B94" s="8">
         <v>93</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="5"/>
+      <c r="F94" s="4"/>
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="14">
+      <c r="B95" s="8">
         <v>94</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="5"/>
+      <c r="F95" s="4"/>
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
@@ -2168,27 +2168,27 @@
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="5"/>
+      <c r="F96" s="4"/>
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="14">
+      <c r="B97" s="8">
         <v>96</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="5"/>
+      <c r="F97" s="4"/>
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="14">
+      <c r="B98" s="8">
         <v>97</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="5"/>
+      <c r="F98" s="4"/>
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
@@ -2198,17 +2198,17 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="5"/>
+      <c r="F99" s="4"/>
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="14">
+      <c r="B100" s="8">
         <v>99</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="5"/>
+      <c r="F100" s="4"/>
       <c r="G100" s="1"/>
     </row>
   </sheetData>

--- a/Tesztelési terv.xlsx
+++ b/Tesztelési terv.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9F5D7C-2A26-487D-9458-A574F711B2D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987F3812-9DCB-453B-B98B-ACDB8F0F9635}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13755" windowHeight="10665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tesztek" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -175,7 +175,22 @@
     <t xml:space="preserve">PC - front 1 </t>
   </si>
   <si>
-    <t>Pc - UX 1</t>
+    <t>PC - Front 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC - tester </t>
+  </si>
+  <si>
+    <t>PC - UX 2</t>
+  </si>
+  <si>
+    <t>nslookup</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -191,7 +206,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,8 +237,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9933"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -357,22 +390,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -382,10 +435,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -416,9 +465,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -448,6 +494,71 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,6 +566,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFFF"/>
+      <color rgb="FFFF9933"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -731,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,1474 +859,1534 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="14">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="E2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="16">
+      <c r="B3" s="10">
         <v>2</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="16" t="s">
+      <c r="E3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="16">
+      <c r="B4" s="10">
         <v>3</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="16" t="s">
+      <c r="E4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="37"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="30"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="16">
+      <c r="B5" s="10">
         <v>4</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="16" t="s">
+      <c r="E5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="34"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="27"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="16">
-        <v>5</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="10">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="16" t="s">
+      <c r="E6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="16">
+      <c r="B7" s="10">
         <v>6</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="16" t="s">
+      <c r="E7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="J7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="16">
+      <c r="B8" s="10">
         <v>7</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="16" t="s">
+      <c r="E8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="40" t="s">
+      <c r="J8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="16">
+      <c r="B9" s="10">
         <v>8</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="16" t="s">
+      <c r="E9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
     </row>
     <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17">
+      <c r="B10" s="11">
         <v>9</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="17" t="s">
+      <c r="E10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
     </row>
     <row r="11" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
+      <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="E11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <v>11</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="E12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="7">
+      <c r="B13" s="4">
         <v>12</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="E13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="19">
+      <c r="B14" s="13">
         <v>13</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="19"/>
+      <c r="E14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="21">
+      <c r="B15" s="15">
         <v>14</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="21"/>
+      <c r="E15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="21">
+      <c r="B16" s="15">
         <v>15</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="21"/>
+      <c r="E16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="21">
+      <c r="B17" s="15">
         <v>16</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="21"/>
+      <c r="E17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="21">
+      <c r="B18" s="15">
         <v>17</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="21"/>
+      <c r="E18" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="22">
+      <c r="B19" s="16">
         <v>18</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="22"/>
+      <c r="E19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="24">
+      <c r="B20" s="18">
         <v>19</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="24" t="s">
+      <c r="E20" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="26">
+      <c r="B21" s="20">
         <v>20</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="26" t="s">
+      <c r="E21" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="26">
+      <c r="B22" s="20">
         <v>21</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="26" t="s">
+      <c r="E22" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="26">
+      <c r="B23" s="20">
         <v>22</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="24" t="s">
+      <c r="F23" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="26">
+      <c r="B24" s="20">
         <v>23</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" s="26" t="s">
+      <c r="F24" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="26">
+      <c r="B25" s="20">
         <v>24</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="26" t="s">
+      <c r="F25" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="26">
+      <c r="B26" s="20">
         <v>25</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="26" t="s">
+      <c r="E26" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="26">
+      <c r="B27" s="20">
         <v>26</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="26" t="s">
+      <c r="E27" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="26">
+      <c r="B28" s="20">
         <v>27</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="26" t="s">
+      <c r="E28" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="26">
+      <c r="B29" s="20">
         <v>28</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" s="26" t="s">
+      <c r="F29" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="26">
+      <c r="B30" s="20">
         <v>29</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="26" t="s">
+      <c r="F30" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="26">
+      <c r="B31" s="20">
         <v>30</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F31" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" s="26" t="s">
+      <c r="F31" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="26">
+      <c r="B32" s="20">
         <v>31</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" s="26" t="s">
+      <c r="E32" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="26">
+      <c r="B33" s="20">
         <v>32</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G33" s="26" t="s">
+      <c r="E33" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="26">
+      <c r="B34" s="20">
         <v>33</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" s="26" t="s">
+      <c r="E34" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="26">
+      <c r="B35" s="20">
         <v>34</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F35" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" s="26" t="s">
+      <c r="F35" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="26">
+      <c r="B36" s="20">
         <v>35</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" s="26" t="s">
+      <c r="F36" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="28">
+      <c r="B37" s="22">
         <v>36</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E37" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G37" s="28" t="s">
+      <c r="F37" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="22" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="13">
+      <c r="B38" s="35">
         <v>37</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="2"/>
+      <c r="E38" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="36"/>
+      <c r="G38" s="39" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="1">
+      <c r="B39" s="37">
         <v>38</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="1"/>
+      <c r="E39" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="38"/>
+      <c r="G39" s="40" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="8">
+      <c r="B40" s="37">
         <v>39</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="1"/>
+      <c r="E40" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="38"/>
+      <c r="G40" s="40" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="8">
+      <c r="B41" s="37">
         <v>40</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="1"/>
+      <c r="E41" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="38"/>
+      <c r="G41" s="40" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="1">
+      <c r="B42" s="37">
         <v>41</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="1"/>
+      <c r="E42" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="38"/>
+      <c r="G42" s="40" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="8">
-        <v>42</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="B43" s="37">
+        <v>42</v>
+      </c>
+      <c r="C43" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="38"/>
+      <c r="G43" s="40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="37">
+        <v>43</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="8">
-        <v>43</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="1"/>
+      <c r="E44" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="38"/>
+      <c r="G44" s="40" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="1">
+      <c r="B45" s="37">
         <v>44</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="1"/>
+      <c r="C45" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="38"/>
+      <c r="G45" s="40" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="8">
+      <c r="B46" s="37">
         <v>45</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="1"/>
+      <c r="C46" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="38"/>
+      <c r="G46" s="40" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="8">
+      <c r="B47" s="37">
         <v>46</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="1"/>
+      <c r="C47" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="38"/>
+      <c r="G47" s="40" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="1">
+      <c r="B48" s="37">
         <v>47</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="1"/>
+      <c r="C48" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="38"/>
+      <c r="G48" s="40" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="8">
+      <c r="B49" s="37">
         <v>48</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="1"/>
+      <c r="C49" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="38"/>
+      <c r="G49" s="40" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="8">
+      <c r="B50" s="37">
         <v>49</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="1"/>
+      <c r="C50" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="38"/>
+      <c r="G50" s="40" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="1">
+      <c r="B51" s="37">
         <v>50</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="1"/>
+      <c r="C51" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="38"/>
+      <c r="G51" s="40" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="8">
+      <c r="B52" s="41">
         <v>51</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="1"/>
+      <c r="C52" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="42"/>
+      <c r="G52" s="43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="8">
+      <c r="B53" s="48">
         <v>52</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="1"/>
+      <c r="C53" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53" s="49"/>
+      <c r="G53" s="50" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="1">
+      <c r="B54" s="48">
         <v>53</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="8">
+      <c r="C54" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="8">
+      <c r="F54" s="49"/>
+      <c r="G54" s="50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="52">
+        <v>54</v>
+      </c>
+      <c r="C55" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="1"/>
+      <c r="E55" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" s="54"/>
+      <c r="G55" s="55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="57">
+        <v>55</v>
+      </c>
+      <c r="C56" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="58"/>
+      <c r="G56" s="59" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="1">
+      <c r="B57" s="60">
         <v>56</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="1"/>
+      <c r="C57" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="61"/>
+      <c r="G57" s="62" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="8">
+      <c r="B58" s="60">
         <v>57</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="1"/>
+      <c r="C58" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="61"/>
+      <c r="G58" s="62" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="8">
-        <v>58</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="1"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="1">
-        <v>59</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="1"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="45"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="8">
-        <v>60</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="1"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="45"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="8">
-        <v>61</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="1"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="45"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="1">
-        <v>62</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="1"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="45"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="8">
-        <v>63</v>
-      </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="1"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="45"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="8">
-        <v>64</v>
-      </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="1"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="45"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="1">
-        <v>65</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="1"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="45"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="8">
-        <v>66</v>
-      </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="1"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="45"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="8">
-        <v>67</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="1"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="45"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="1">
-        <v>68</v>
-      </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="1"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="45"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="8">
-        <v>69</v>
-      </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="1"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="45"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="8">
-        <v>70</v>
-      </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="1"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="45"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="1">
-        <v>71</v>
-      </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="1"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="45"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="45"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="8">
-        <v>72</v>
-      </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="1"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="45"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="8">
-        <v>73</v>
-      </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="1"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="45"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="1">
-        <v>74</v>
-      </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="1"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="45"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="8">
-        <v>75</v>
-      </c>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="1"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="45"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="8">
-        <v>76</v>
-      </c>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="1"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="45"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="1">
-        <v>77</v>
-      </c>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="1"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="45"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="8">
-        <v>78</v>
-      </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="1"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="45"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="8">
-        <v>79</v>
-      </c>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="1"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="46"/>
+      <c r="G80" s="45"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B81" s="1">
-        <v>80</v>
-      </c>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="1"/>
+      <c r="B81" s="45"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="45"/>
+      <c r="E81" s="45"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="45"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="8">
-        <v>81</v>
-      </c>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="1"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="45"/>
+      <c r="E82" s="45"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="45"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B83" s="8">
-        <v>82</v>
-      </c>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="1"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="45"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="45"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="1">
-        <v>83</v>
-      </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="1"/>
+      <c r="B84" s="45"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="45"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="45"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="8">
-        <v>84</v>
-      </c>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="1"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="45"/>
+      <c r="E85" s="45"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="45"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="8">
-        <v>85</v>
-      </c>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="1"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="45"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="1">
-        <v>86</v>
-      </c>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="1"/>
+      <c r="B87" s="45"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="45"/>
+      <c r="E87" s="45"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="45"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="8">
-        <v>87</v>
-      </c>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="1"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="45"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="45"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="8">
-        <v>88</v>
-      </c>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="1"/>
+      <c r="B89" s="44"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="45"/>
+      <c r="E89" s="45"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="45"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="1">
-        <v>89</v>
-      </c>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="1"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="45"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="45"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="8">
-        <v>90</v>
-      </c>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="1"/>
+      <c r="B91" s="44"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="45"/>
+      <c r="F91" s="46"/>
+      <c r="G91" s="45"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="8">
-        <v>91</v>
-      </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="1"/>
+      <c r="B92" s="44"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="45"/>
+      <c r="E92" s="45"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="45"/>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="1">
-        <v>92</v>
-      </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="1"/>
+      <c r="B93" s="45"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="45"/>
+      <c r="E93" s="45"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="45"/>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="8">
-        <v>93</v>
-      </c>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="1"/>
+      <c r="B94" s="44"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="45"/>
+      <c r="F94" s="46"/>
+      <c r="G94" s="45"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="8">
-        <v>94</v>
-      </c>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="1"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="45"/>
+      <c r="E95" s="45"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="45"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="1">
-        <v>95</v>
-      </c>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="1"/>
+      <c r="B96" s="45"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="45"/>
+      <c r="E96" s="45"/>
+      <c r="F96" s="46"/>
+      <c r="G96" s="45"/>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="8">
-        <v>96</v>
-      </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="1"/>
+      <c r="B97" s="44"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="45"/>
+      <c r="E97" s="45"/>
+      <c r="F97" s="46"/>
+      <c r="G97" s="45"/>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="8">
-        <v>97</v>
-      </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="1"/>
+      <c r="B98" s="44"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="45"/>
+      <c r="E98" s="45"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="45"/>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B99" s="1">
-        <v>98</v>
-      </c>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="1"/>
+      <c r="B99" s="45"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="45"/>
+      <c r="E99" s="45"/>
+      <c r="F99" s="46"/>
+      <c r="G99" s="45"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="8">
-        <v>99</v>
-      </c>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="1"/>
+      <c r="B100" s="44"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="45"/>
+      <c r="E100" s="45"/>
+      <c r="F100" s="46"/>
+      <c r="G100" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Tesztelési terv.xlsx
+++ b/Tesztelési terv.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987F3812-9DCB-453B-B98B-ACDB8F0F9635}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7432A8-3576-4EC7-853A-5F0C590A426F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13755" windowHeight="10665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -256,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -397,19 +397,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="double">
         <color indexed="64"/>
@@ -420,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -465,39 +452,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -510,13 +464,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -524,40 +471,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -849,7 +842,7 @@
   <dimension ref="B1:Q100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,16 +908,16 @@
       <c r="G3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="10">
@@ -945,16 +938,16 @@
       <c r="G4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="30"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="55"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
@@ -975,16 +968,16 @@
       <c r="G5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="27"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="52"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
@@ -1005,16 +998,16 @@
       <c r="G6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
@@ -1035,16 +1028,16 @@
       <c r="G7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
@@ -1065,16 +1058,16 @@
       <c r="G8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
@@ -1095,16 +1088,16 @@
       <c r="G9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
     </row>
     <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11">
@@ -1155,16 +1148,16 @@
       <c r="G11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="56" t="s">
+      <c r="J11" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
@@ -1675,718 +1668,760 @@
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="35">
+      <c r="B38" s="24">
         <v>37</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="36"/>
-      <c r="G38" s="39" t="s">
+      <c r="E38" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="28" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="37">
+      <c r="B39" s="26">
         <v>38</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="38"/>
-      <c r="G39" s="40" t="s">
+      <c r="E39" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="29" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="37">
+      <c r="B40" s="26">
         <v>39</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="38"/>
-      <c r="G40" s="40" t="s">
+      <c r="E40" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="29" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="37">
+      <c r="B41" s="26">
         <v>40</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="37" t="s">
+      <c r="D41" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="38"/>
-      <c r="G41" s="40" t="s">
+      <c r="E41" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="29" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="37">
+      <c r="B42" s="26">
         <v>41</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="38"/>
-      <c r="G42" s="40" t="s">
+      <c r="E42" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="29" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="37">
-        <v>42</v>
-      </c>
-      <c r="C43" s="35" t="s">
+      <c r="B43" s="26">
+        <v>42</v>
+      </c>
+      <c r="C43" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="37" t="s">
+      <c r="D43" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="38"/>
-      <c r="G43" s="40" t="s">
+      <c r="E43" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="29" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="37">
+      <c r="B44" s="26">
         <v>43</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="37" t="s">
+      <c r="D44" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E44" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="38"/>
-      <c r="G44" s="40" t="s">
+      <c r="E44" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="29" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="37">
+      <c r="B45" s="26">
         <v>44</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="37" t="s">
+      <c r="D45" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="38"/>
-      <c r="G45" s="40" t="s">
+      <c r="E45" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="29" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="37">
+      <c r="B46" s="26">
         <v>45</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C46" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="37" t="s">
+      <c r="D46" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="38"/>
-      <c r="G46" s="40" t="s">
+      <c r="E46" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="29" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="37">
+      <c r="B47" s="26">
         <v>46</v>
       </c>
-      <c r="C47" s="37" t="s">
+      <c r="C47" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="37" t="s">
+      <c r="D47" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E47" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="38"/>
-      <c r="G47" s="40" t="s">
+      <c r="E47" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="29" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="37">
+      <c r="B48" s="26">
         <v>47</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="37" t="s">
+      <c r="D48" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="38"/>
-      <c r="G48" s="40" t="s">
+      <c r="E48" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" s="29" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="37">
+      <c r="B49" s="26">
         <v>48</v>
       </c>
-      <c r="C49" s="37" t="s">
+      <c r="C49" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="37" t="s">
+      <c r="D49" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E49" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="38"/>
-      <c r="G49" s="40" t="s">
+      <c r="E49" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" s="29" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="37">
+      <c r="B50" s="26">
         <v>49</v>
       </c>
-      <c r="C50" s="37" t="s">
+      <c r="C50" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="37" t="s">
+      <c r="D50" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F50" s="38"/>
-      <c r="G50" s="40" t="s">
+      <c r="E50" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" s="29" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="37">
+      <c r="B51" s="26">
         <v>50</v>
       </c>
-      <c r="C51" s="37" t="s">
+      <c r="C51" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="37" t="s">
+      <c r="D51" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E51" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51" s="38"/>
-      <c r="G51" s="40" t="s">
+      <c r="E51" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" s="29" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="41">
+    <row r="52" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="62">
         <v>51</v>
       </c>
-      <c r="C52" s="41" t="s">
+      <c r="C52" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="42"/>
-      <c r="G52" s="43" t="s">
+      <c r="E52" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" s="64" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="48">
+    <row r="53" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="36">
         <v>52</v>
       </c>
-      <c r="C53" s="48" t="s">
+      <c r="C53" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="48" t="s">
+      <c r="D53" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="E53" s="48" t="s">
+      <c r="E53" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="F53" s="49"/>
-      <c r="G53" s="50" t="s">
+      <c r="F53" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="G53" s="61" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="48">
+      <c r="B54" s="33">
         <v>53</v>
       </c>
-      <c r="C54" s="51" t="s">
+      <c r="C54" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="48" t="s">
+      <c r="D54" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E54" s="48" t="s">
+      <c r="E54" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="F54" s="49"/>
-      <c r="G54" s="50" t="s">
+      <c r="F54" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" s="35" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="52">
+      <c r="B55" s="37">
         <v>54</v>
       </c>
-      <c r="C55" s="53" t="s">
+      <c r="C55" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D55" s="52" t="s">
+      <c r="D55" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="E55" s="52" t="s">
+      <c r="E55" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="F55" s="54"/>
-      <c r="G55" s="55" t="s">
+      <c r="F55" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G55" s="40" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="57">
+      <c r="B56" s="41">
         <v>55</v>
       </c>
-      <c r="C56" s="57" t="s">
+      <c r="C56" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="57" t="s">
+      <c r="D56" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="E56" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="58"/>
-      <c r="G56" s="59" t="s">
+      <c r="E56" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56" s="43" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="60">
+      <c r="B57" s="44">
         <v>56</v>
       </c>
-      <c r="C57" s="57" t="s">
+      <c r="C57" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D57" s="60" t="s">
+      <c r="D57" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="E57" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="61"/>
-      <c r="G57" s="62" t="s">
+      <c r="E57" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" s="46" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="60">
+      <c r="B58" s="44">
         <v>57</v>
       </c>
-      <c r="C58" s="60" t="s">
+      <c r="C58" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D58" s="60" t="s">
+      <c r="D58" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="E58" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="61"/>
-      <c r="G58" s="62" t="s">
+      <c r="E58" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" s="46" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="44"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="45"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="45"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="31"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="44"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="45"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="31"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="44"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="45"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="31"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="45"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="46"/>
-      <c r="G63" s="45"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="31"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="44"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="45"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="31"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="44"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="45"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="31"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="45"/>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="45"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="45"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="31"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="44"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="45"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="45"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="31"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="44"/>
-      <c r="C68" s="45"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="45"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="31"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="45"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="46"/>
-      <c r="G69" s="45"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="31"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="44"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="46"/>
-      <c r="G70" s="45"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="31"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="44"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="45"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="45"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="31"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="45"/>
-      <c r="C72" s="45"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="45"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="45"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="31"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="44"/>
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="45"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="31"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="44"/>
-      <c r="C74" s="45"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="45"/>
-      <c r="F74" s="46"/>
-      <c r="G74" s="45"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="31"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="45"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="45"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="31"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="44"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="46"/>
-      <c r="G76" s="45"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="31"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="44"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="45"/>
-      <c r="F77" s="46"/>
-      <c r="G77" s="45"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="31"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="45"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="45"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="45"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="31"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="44"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="45"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="31"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="44"/>
-      <c r="C80" s="45"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="45"/>
-      <c r="F80" s="46"/>
-      <c r="G80" s="45"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="31"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B81" s="45"/>
-      <c r="C81" s="45"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="45"/>
-      <c r="F81" s="46"/>
-      <c r="G81" s="45"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="31"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="44"/>
-      <c r="C82" s="45"/>
-      <c r="D82" s="45"/>
-      <c r="E82" s="45"/>
-      <c r="F82" s="46"/>
-      <c r="G82" s="45"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="31"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B83" s="44"/>
-      <c r="C83" s="45"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="45"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="45"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="31"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="45"/>
-      <c r="C84" s="45"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="45"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="31"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="44"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="45"/>
-      <c r="F85" s="46"/>
-      <c r="G85" s="45"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="31"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="44"/>
-      <c r="C86" s="45"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="46"/>
-      <c r="G86" s="45"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="31"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="45"/>
-      <c r="C87" s="45"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="45"/>
-      <c r="F87" s="46"/>
-      <c r="G87" s="45"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="31"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="44"/>
-      <c r="C88" s="45"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="45"/>
-      <c r="F88" s="46"/>
-      <c r="G88" s="45"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="31"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="44"/>
-      <c r="C89" s="45"/>
-      <c r="D89" s="45"/>
-      <c r="E89" s="45"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="45"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="31"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="45"/>
-      <c r="C90" s="45"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="45"/>
-      <c r="F90" s="46"/>
-      <c r="G90" s="45"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="31"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="44"/>
-      <c r="C91" s="45"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="46"/>
-      <c r="G91" s="45"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="31"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="44"/>
-      <c r="C92" s="45"/>
-      <c r="D92" s="45"/>
-      <c r="E92" s="45"/>
-      <c r="F92" s="46"/>
-      <c r="G92" s="45"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="31"/>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="45"/>
-      <c r="C93" s="45"/>
-      <c r="D93" s="45"/>
-      <c r="E93" s="45"/>
-      <c r="F93" s="46"/>
-      <c r="G93" s="45"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="31"/>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="44"/>
-      <c r="C94" s="45"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="45"/>
-      <c r="F94" s="46"/>
-      <c r="G94" s="45"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="31"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="44"/>
-      <c r="C95" s="45"/>
-      <c r="D95" s="45"/>
-      <c r="E95" s="45"/>
-      <c r="F95" s="46"/>
-      <c r="G95" s="45"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="31"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="45"/>
-      <c r="C96" s="45"/>
-      <c r="D96" s="45"/>
-      <c r="E96" s="45"/>
-      <c r="F96" s="46"/>
-      <c r="G96" s="45"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="31"/>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="44"/>
-      <c r="C97" s="45"/>
-      <c r="D97" s="45"/>
-      <c r="E97" s="45"/>
-      <c r="F97" s="46"/>
-      <c r="G97" s="45"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="31"/>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="44"/>
-      <c r="C98" s="45"/>
-      <c r="D98" s="45"/>
-      <c r="E98" s="45"/>
-      <c r="F98" s="46"/>
-      <c r="G98" s="45"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="31"/>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B99" s="45"/>
-      <c r="C99" s="45"/>
-      <c r="D99" s="45"/>
-      <c r="E99" s="45"/>
-      <c r="F99" s="46"/>
-      <c r="G99" s="45"/>
+      <c r="B99" s="31"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="31"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="44"/>
-      <c r="C100" s="45"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="45"/>
-      <c r="F100" s="46"/>
-      <c r="G100" s="45"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Tesztelési terv.xlsx
+++ b/Tesztelési terv.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7432A8-3576-4EC7-853A-5F0C590A426F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A74D4D-C734-4DA7-B4C2-28CD7E4C04DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13755" windowHeight="10665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tesztek" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -175,13 +175,7 @@
     <t xml:space="preserve">PC - front 1 </t>
   </si>
   <si>
-    <t>PC - Front 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">PC - tester </t>
-  </si>
-  <si>
-    <t>PC - UX 2</t>
   </si>
   <si>
     <t>nslookup</t>
@@ -501,6 +495,19 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -539,19 +546,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -841,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,16 +902,16 @@
       <c r="G3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="10">
@@ -938,16 +932,16 @@
       <c r="G4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="53" t="s">
+      <c r="J4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="55"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="60"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
@@ -968,16 +962,16 @@
       <c r="G5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="50" t="s">
+      <c r="J5" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="52"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="57"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
@@ -998,16 +992,16 @@
       <c r="G6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
@@ -1028,16 +1022,16 @@
       <c r="G7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="57" t="s">
+      <c r="J7" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
@@ -1058,16 +1052,16 @@
       <c r="G8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="58" t="s">
+      <c r="J8" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
@@ -1088,16 +1082,16 @@
       <c r="G9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="59" t="s">
+      <c r="J9" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
     </row>
     <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11">
@@ -1118,16 +1112,16 @@
       <c r="G10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="47" t="s">
+      <c r="J10" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
     </row>
     <row r="11" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
@@ -1148,16 +1142,16 @@
       <c r="G11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="48" t="s">
+      <c r="J11" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
@@ -1684,7 +1678,7 @@
         <v>42</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
@@ -1704,7 +1698,7 @@
         <v>42</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
@@ -1724,7 +1718,7 @@
         <v>42</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
@@ -1744,7 +1738,7 @@
         <v>42</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
@@ -1764,7 +1758,7 @@
         <v>42</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
@@ -1784,7 +1778,7 @@
         <v>42</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
@@ -1795,7 +1789,7 @@
         <v>26</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="E44" s="24" t="s">
         <v>5</v>
@@ -1804,7 +1798,7 @@
         <v>42</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
@@ -1815,7 +1809,7 @@
         <v>26</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>5</v>
@@ -1824,7 +1818,7 @@
         <v>42</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
@@ -1835,7 +1829,7 @@
         <v>26</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E46" s="24" t="s">
         <v>5</v>
@@ -1844,7 +1838,7 @@
         <v>42</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
@@ -1852,10 +1846,10 @@
         <v>46</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="E47" s="24" t="s">
         <v>5</v>
@@ -1864,7 +1858,7 @@
         <v>42</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
@@ -1872,10 +1866,10 @@
         <v>47</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="E48" s="24" t="s">
         <v>5</v>
@@ -1884,7 +1878,7 @@
         <v>42</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
@@ -1895,7 +1889,7 @@
         <v>19</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E49" s="24" t="s">
         <v>5</v>
@@ -1904,7 +1898,7 @@
         <v>42</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
@@ -1915,7 +1909,7 @@
         <v>19</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E50" s="24" t="s">
         <v>5</v>
@@ -1924,138 +1918,138 @@
         <v>42</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="26">
         <v>50</v>
       </c>
-      <c r="C51" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="26" t="s">
+      <c r="C51" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" s="51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="33">
+        <v>51</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E51" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G51" s="29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="62">
-        <v>51</v>
-      </c>
-      <c r="C52" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="D52" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="G52" s="64" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="36">
+      <c r="E52" s="36" t="s">
         <v>52</v>
       </c>
+      <c r="F52" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" s="48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="33">
+        <v>52</v>
+      </c>
       <c r="C53" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E53" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F53" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G53" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F53" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="G53" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="33">
         <v>53</v>
       </c>
-      <c r="C54" s="36" t="s">
+      <c r="C54" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" s="40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="44">
+        <v>54</v>
+      </c>
+      <c r="C55" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G55" s="43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="44">
+        <v>55</v>
+      </c>
+      <c r="C56" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E54" s="33" t="s">
+      <c r="D56" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56" s="46" t="s">
         <v>54</v>
-      </c>
-      <c r="F54" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G54" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="37">
-        <v>54</v>
-      </c>
-      <c r="C55" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D55" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E55" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="F55" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="G55" s="40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="41">
-        <v>55</v>
-      </c>
-      <c r="C56" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="E56" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G56" s="43" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="44">
         <v>56</v>
       </c>
-      <c r="C57" s="41" t="s">
-        <v>26</v>
+      <c r="C57" s="44" t="s">
+        <v>33</v>
       </c>
       <c r="D57" s="44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E57" s="44" t="s">
         <v>5</v>
@@ -2064,27 +2058,7 @@
         <v>42</v>
       </c>
       <c r="G57" s="46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="44">
-        <v>57</v>
-      </c>
-      <c r="C58" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D58" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="E58" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="G58" s="46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
